--- a/tabdia/Zusammensetzung.xlsx
+++ b/tabdia/Zusammensetzung.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\Umwelttechnik-Abfall\tabdia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BC29BC-ECB0-4E82-BB70-28691994C8CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85CA9C-84A5-4AE3-B50B-7D8245E01655}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42BB549A-DED0-4974-B361-C86772933A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(Tabelle1!$C$7,Tabelle1!$C$3:$C$4)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Tabelle1!$F$3:$F$4,Tabelle1!$F$7)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -236,6 +232,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C57E-4A41-9D96-AFCEDBA8F9DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -271,6 +272,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C57E-4A41-9D96-AFCEDBA8F9DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -286,6 +292,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C57E-4A41-9D96-AFCEDBA8F9DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1492,7 +1503,7 @@
   <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
